--- a/ftest/fm24/comparison.xlsx
+++ b/ftest/fm24/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\ktest\ftest\fm24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D00D82-BA44-4AA5-8441-0960434DFF5A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395694D7-A04E-4108-B074-3D30BC3BA77E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="1200" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{847AF049-B48E-493E-BF12-8F290FF458C4}"/>
+    <workbookView xWindow="1920" yWindow="1896" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="6" xr2:uid="{847AF049-B48E-493E-BF12-8F290FF458C4}"/>
   </bookViews>
   <sheets>
     <sheet name="loc_summary" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="old a1" sheetId="6" r:id="rId3"/>
     <sheet name="new a2" sheetId="2" r:id="rId4"/>
     <sheet name="new a1" sheetId="4" r:id="rId5"/>
-    <sheet name="new by location" sheetId="3" r:id="rId6"/>
+    <sheet name="new a1 fmpy" sheetId="7" r:id="rId6"/>
+    <sheet name="new by location" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'old a1'!$A$1:$D$31</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t>event_id</t>
   </si>
@@ -141,7 +142,7 @@
     <t>a2-a1</t>
   </si>
   <si>
-    <t>ok</t>
+    <t>a1 py</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1187,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D34" sqref="A34:D44"/>
+      <selection activeCell="D35" sqref="D35:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,11 +4531,11 @@
         <v>14365754</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="2">VLOOKUP(B67,$I$2:$W$128,10,FALSE)</f>
+        <f t="shared" ref="E67:E82" si="2">VLOOKUP(B67,$I$2:$W$128,10,FALSE)</f>
         <v>i</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" ref="F67:F130" si="3">C67&amp;"_"&amp;E67</f>
+        <f t="shared" ref="F67:F82" si="3">C67&amp;"_"&amp;E67</f>
         <v>1_i</v>
       </c>
     </row>
@@ -4877,8 +4878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B8BF57-0471-4D49-8C79-01BE18AC8586}">
   <dimension ref="A1:W82"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R28"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4959,7 +4960,7 @@
         <v>-3</v>
       </c>
       <c r="D2">
-        <v>3476402</v>
+        <v>6528577.5</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(B2,$I$2:$W$128,10,FALSE)</f>
@@ -5093,7 +5094,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3476402</v>
+        <v>6528577.5</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -5160,7 +5161,7 @@
         <v>-3</v>
       </c>
       <c r="D5">
-        <v>560710.12</v>
+        <v>1052996.3799999999</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -5294,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>560710.12</v>
+        <v>1052996.3799999999</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -5361,7 +5362,7 @@
         <v>-3</v>
       </c>
       <c r="D8">
-        <v>11214.33</v>
+        <v>21059.93</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -5495,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>11214.33</v>
+        <v>21059.93</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -5562,7 +5563,7 @@
         <v>-3</v>
       </c>
       <c r="D11">
-        <v>3165913</v>
+        <v>3959266.5</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -5696,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>3165913</v>
+        <v>3959266.5</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -5763,7 +5764,7 @@
         <v>-3</v>
       </c>
       <c r="D14">
-        <v>875678</v>
+        <v>1095116.3799999999</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -5897,7 +5898,7 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>875678</v>
+        <v>1095116.3799999999</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -5964,7 +5965,7 @@
         <v>-3</v>
       </c>
       <c r="D17">
-        <v>6736.1</v>
+        <v>8423.9699999999993</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -6098,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>6736.1</v>
+        <v>8423.9699999999993</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -6165,7 +6166,7 @@
         <v>-3</v>
       </c>
       <c r="D20">
-        <v>1982193.75</v>
+        <v>2274472.25</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -6299,7 +6300,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1982193.75</v>
+        <v>2274472.25</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -6366,7 +6367,7 @@
         <v>-3</v>
       </c>
       <c r="D23">
-        <v>440487.47</v>
+        <v>505438.22</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -6500,7 +6501,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>440487.47</v>
+        <v>505438.22</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -6567,7 +6568,7 @@
         <v>-3</v>
       </c>
       <c r="D26">
-        <v>3670.84</v>
+        <v>4211.99</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
@@ -6701,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>3670.84</v>
+        <v>4211.99</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
@@ -6768,7 +6769,7 @@
         <v>-3</v>
       </c>
       <c r="D29">
-        <v>623977.31000000006</v>
+        <v>716037.5</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
@@ -6812,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="D31">
-        <v>623977.31000000006</v>
+        <v>716037.5</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
@@ -6834,7 +6835,7 @@
         <v>-3</v>
       </c>
       <c r="D32">
-        <v>73409.09</v>
+        <v>84239.71</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
@@ -6878,7 +6879,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>73409.09</v>
+        <v>84239.71</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
@@ -6900,7 +6901,7 @@
         <v>-3</v>
       </c>
       <c r="D35">
-        <v>7341.68</v>
+        <v>8423.9699999999993</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -6944,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>7341.68</v>
+        <v>8423.9699999999993</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
@@ -6966,7 +6967,7 @@
         <v>-3</v>
       </c>
       <c r="D38">
-        <v>11291845</v>
+        <v>15381483</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
@@ -7010,7 +7011,7 @@
         <v>1</v>
       </c>
       <c r="D40">
-        <v>11291845</v>
+        <v>15381483</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
@@ -7032,7 +7033,7 @@
         <v>-3</v>
       </c>
       <c r="D41">
-        <v>4839361</v>
+        <v>6592064</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
@@ -7076,7 +7077,7 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>4839361</v>
+        <v>6592064</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
@@ -7098,7 +7099,7 @@
         <v>-3</v>
       </c>
       <c r="D44">
-        <v>967872.56</v>
+        <v>1318413</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
@@ -7142,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>967872.56</v>
+        <v>1318413</v>
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
@@ -7164,7 +7165,7 @@
         <v>-3</v>
       </c>
       <c r="D47">
-        <v>6912368.5</v>
+        <v>4614444.5</v>
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
@@ -7208,7 +7209,7 @@
         <v>1</v>
       </c>
       <c r="D49">
-        <v>6912368.5</v>
+        <v>4614444.5</v>
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
@@ -7230,7 +7231,7 @@
         <v>-3</v>
       </c>
       <c r="D50">
-        <v>2962444.25</v>
+        <v>1977619.12</v>
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
@@ -7274,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>2962444.25</v>
+        <v>1977619.12</v>
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
@@ -7296,7 +7297,7 @@
         <v>-3</v>
       </c>
       <c r="D53">
-        <v>96484.41</v>
+        <v>122519.22</v>
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
@@ -7340,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>96484.41</v>
+        <v>122519.22</v>
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
@@ -7362,7 +7363,7 @@
         <v>-3</v>
       </c>
       <c r="D56">
-        <v>34608.519999999997</v>
+        <v>43947.09</v>
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
@@ -7406,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>34608.519999999997</v>
+        <v>43947.09</v>
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
@@ -7428,7 +7429,7 @@
         <v>-3</v>
       </c>
       <c r="D59">
-        <v>3077530.75</v>
+        <v>3296032</v>
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
@@ -7472,7 +7473,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>3077530.75</v>
+        <v>3296032</v>
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
@@ -7494,7 +7495,7 @@
         <v>-3</v>
       </c>
       <c r="D62">
-        <v>1231012</v>
+        <v>1318413</v>
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
@@ -7538,7 +7539,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>1231012</v>
+        <v>1318413</v>
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
@@ -7560,7 +7561,7 @@
         <v>-3</v>
       </c>
       <c r="D65">
-        <v>14183706</v>
+        <v>13796295</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
@@ -7604,7 +7605,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>14183706</v>
+        <v>13796295</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ref="E67:E82" si="2">VLOOKUP(B67,$I$2:$W$128,10,FALSE)</f>
@@ -7626,7 +7627,7 @@
         <v>-3</v>
       </c>
       <c r="D68">
-        <v>3545926.5</v>
+        <v>3449073.75</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="2"/>
@@ -7670,7 +7671,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>3545926.5</v>
+        <v>3449073.75</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="2"/>
@@ -7692,7 +7693,7 @@
         <v>-3</v>
       </c>
       <c r="D71">
-        <v>1181975.3799999999</v>
+        <v>1149691.25</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" si="2"/>
@@ -7736,7 +7737,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1181975.3799999999</v>
+        <v>1149691.25</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="2"/>
@@ -7758,7 +7759,7 @@
         <v>-3</v>
       </c>
       <c r="D74">
-        <v>7126338.5</v>
+        <v>4598765</v>
       </c>
       <c r="E74" t="str">
         <f t="shared" si="2"/>
@@ -7802,7 +7803,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>7126338.5</v>
+        <v>4598765</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
@@ -7824,7 +7825,7 @@
         <v>-3</v>
       </c>
       <c r="D77">
-        <v>3563169.25</v>
+        <v>2299382.5</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
@@ -7868,7 +7869,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>3563169.25</v>
+        <v>2299382.5</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
@@ -7890,7 +7891,7 @@
         <v>-3</v>
       </c>
       <c r="D80">
-        <v>712633.81</v>
+        <v>459876.53</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
@@ -7934,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>712633.81</v>
+        <v>459876.53</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
@@ -7951,20 +7952,3098 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9224E9E-78D9-4C05-B095-C9D37B4D295B}">
+  <dimension ref="A1:W82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection sqref="A1:D82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>-3</v>
+      </c>
+      <c r="D2">
+        <v>6528583.5</v>
+      </c>
+      <c r="E2" t="str">
+        <f>VLOOKUP(B2,$I$2:$W$128,10,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="F2" t="str">
+        <f>C2&amp;"_"&amp;E2</f>
+        <v>-3_A</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>123</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>775000000</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">VLOOKUP(B3,$I$2:$W$128,10,FALSE)</f>
+        <v>A</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F66" si="1">C3&amp;"_"&amp;E3</f>
+        <v>-1_A</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>123</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>125000000</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>6528583.5</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>1_A</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>123</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>2500000</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>-3</v>
+      </c>
+      <c r="D5">
+        <v>1052997.3799999999</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_A</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>123</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>470000000</v>
+      </c>
+      <c r="W5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_A</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>123</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>130000000</v>
+      </c>
+      <c r="W6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1052997.3799999999</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>1_A</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>123</v>
+      </c>
+      <c r="L7">
+        <v>6</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1000000</v>
+      </c>
+      <c r="W7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>21059.95</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_A</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>123</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>270000000</v>
+      </c>
+      <c r="W8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_A</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>123</v>
+      </c>
+      <c r="L9">
+        <v>8</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>3</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>60000000</v>
+      </c>
+      <c r="W9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>21059.95</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>A</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>1_A</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>123</v>
+      </c>
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>500000</v>
+      </c>
+      <c r="W10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>-3</v>
+      </c>
+      <c r="D11">
+        <v>3959270.75</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_B</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>123</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>4</v>
+      </c>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>85000000</v>
+      </c>
+      <c r="W11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>-1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_B</v>
+      </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>123</v>
+      </c>
+      <c r="L12">
+        <v>11</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>10000000</v>
+      </c>
+      <c r="W12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3959270.75</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>1_B</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>123</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1000000</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>-3</v>
+      </c>
+      <c r="D14">
+        <v>1095117</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_B</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>456</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>70000000</v>
+      </c>
+      <c r="W14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_B</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>456</v>
+      </c>
+      <c r="L15">
+        <v>14</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>30000000</v>
+      </c>
+      <c r="W15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1095117</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>1_B</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>456</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>15</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>6000000</v>
+      </c>
+      <c r="W16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>-3</v>
+      </c>
+      <c r="D17">
+        <v>8423.98</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_B</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>456</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <v>21000000</v>
+      </c>
+      <c r="W17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_B</v>
+      </c>
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>456</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>6</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>9000000</v>
+      </c>
+      <c r="W18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>8423.98</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>B</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>1_B</v>
+      </c>
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>456</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>7</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>557576</v>
+      </c>
+      <c r="W19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>-3</v>
+      </c>
+      <c r="D20">
+        <v>2274474.25</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_C</v>
+      </c>
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>456</v>
+      </c>
+      <c r="L20">
+        <v>19</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>7</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>200000</v>
+      </c>
+      <c r="W20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_C</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>456</v>
+      </c>
+      <c r="L21">
+        <v>20</v>
+      </c>
+      <c r="M21">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>8</v>
+      </c>
+      <c r="Q21">
+        <v>7</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>15000000</v>
+      </c>
+      <c r="W21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2274474.25</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>1_C</v>
+      </c>
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>456</v>
+      </c>
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>8</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>6000000</v>
+      </c>
+      <c r="W22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>-3</v>
+      </c>
+      <c r="D23">
+        <v>505438.71999999997</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_C</v>
+      </c>
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>789</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>9</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>60000000</v>
+      </c>
+      <c r="W23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_C</v>
+      </c>
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>789</v>
+      </c>
+      <c r="L24">
+        <v>23</v>
+      </c>
+      <c r="M24">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <v>9</v>
+      </c>
+      <c r="Q24">
+        <v>8</v>
+      </c>
+      <c r="R24" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>15000000</v>
+      </c>
+      <c r="W24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>505438.71999999997</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>1_C</v>
+      </c>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>789</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>24</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>9</v>
+      </c>
+      <c r="Q25">
+        <v>8</v>
+      </c>
+      <c r="R25" t="s">
+        <v>21</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>5000000</v>
+      </c>
+      <c r="W25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>-3</v>
+      </c>
+      <c r="D26">
+        <v>4211.99</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_C</v>
+      </c>
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>789</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>25</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>10</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+      <c r="R26" t="s">
+        <v>22</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>20000000</v>
+      </c>
+      <c r="W26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_C</v>
+      </c>
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>789</v>
+      </c>
+      <c r="L27">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>10</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+      <c r="R27" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>10000000</v>
+      </c>
+      <c r="W27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>4211.99</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>C</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>1_C</v>
+      </c>
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>789</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>10</v>
+      </c>
+      <c r="Q28">
+        <v>9</v>
+      </c>
+      <c r="R28" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2000000</v>
+      </c>
+      <c r="W28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>-3</v>
+      </c>
+      <c r="D29">
+        <v>716038.12</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_D</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_D</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>716038.12</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>1_D</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>-3</v>
+      </c>
+      <c r="D32">
+        <v>84239.78</v>
+      </c>
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_D</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_D</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>84239.78</v>
+      </c>
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="1"/>
+        <v>1_D</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>-3</v>
+      </c>
+      <c r="D35">
+        <v>8423.98</v>
+      </c>
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_D</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_D</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>8423.98</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>D</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="1"/>
+        <v>1_D</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>-3</v>
+      </c>
+      <c r="D38">
+        <v>15381495</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>15381495</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="1"/>
+        <v>1_1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>-3</v>
+      </c>
+      <c r="D41">
+        <v>6592069.5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6592069.5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="1"/>
+        <v>1_1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>-3</v>
+      </c>
+      <c r="D44">
+        <v>1318413.8799999999</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>-1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1318413.8799999999</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="1"/>
+        <v>1_1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>-3</v>
+      </c>
+      <c r="D47">
+        <v>4614449.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>-1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>4614449.5</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>-3</v>
+      </c>
+      <c r="D50">
+        <v>1977620.5</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>-1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1977620.5</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="1"/>
+        <v>1_2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>-3</v>
+      </c>
+      <c r="D53">
+        <v>122519.33</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>18</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>122519.33</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="1"/>
+        <v>1_3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>-3</v>
+      </c>
+      <c r="D56">
+        <v>43947.12</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>-1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>43947.12</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="1"/>
+        <v>1_3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>-3</v>
+      </c>
+      <c r="D59">
+        <v>3296034.75</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>20</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>3296034.75</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="1"/>
+        <v>1_4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>-3</v>
+      </c>
+      <c r="D62">
+        <v>1318413.8799999999</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>-1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1318413.8799999999</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="1"/>
+        <v>1_4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>-3</v>
+      </c>
+      <c r="D65">
+        <v>13796309</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" si="1"/>
+        <v>-3_i</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>-1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>-1_i</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>13796309</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E82" si="2">VLOOKUP(B67,$I$2:$W$128,10,FALSE)</f>
+        <v>i</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" ref="F67:F82" si="3">C67&amp;"_"&amp;E67</f>
+        <v>1_i</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>23</v>
+      </c>
+      <c r="C68">
+        <v>-3</v>
+      </c>
+      <c r="D68">
+        <v>3449077.25</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="3"/>
+        <v>-3_i</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>-1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="3"/>
+        <v>-1_i</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>3449077.25</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="3"/>
+        <v>1_i</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>24</v>
+      </c>
+      <c r="C71">
+        <v>-3</v>
+      </c>
+      <c r="D71">
+        <v>1149692.1200000001</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="3"/>
+        <v>-3_i</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>-1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="3"/>
+        <v>-1_i</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1149692.1200000001</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="2"/>
+        <v>i</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="3"/>
+        <v>1_i</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>-3</v>
+      </c>
+      <c r="D74">
+        <v>4598768.5</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="3"/>
+        <v>-3_ii</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>-1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="3"/>
+        <v>-1_ii</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>4598768.5</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="3"/>
+        <v>1_ii</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>-3</v>
+      </c>
+      <c r="D77">
+        <v>2299384.25</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="3"/>
+        <v>-3_ii</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="3"/>
+        <v>-1_ii</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>2299384.25</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="3"/>
+        <v>1_ii</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>-3</v>
+      </c>
+      <c r="D80">
+        <v>459876.88</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="3"/>
+        <v>-3_ii</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>27</v>
+      </c>
+      <c r="C81">
+        <v>-1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="3"/>
+        <v>-1_ii</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>27</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>459876.88</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="2"/>
+        <v>ii</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="3"/>
+        <v>1_ii</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DD98CD-EFA5-459C-AE8D-2EE35ACBFD10}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>23</v>
       </c>
@@ -7974,17 +11053,20 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>-3</v>
       </c>
@@ -7992,7 +11074,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="str">
-        <f>A2&amp;"_"&amp;B2</f>
+        <f t="shared" ref="C2:C11" si="0">A2&amp;"_"&amp;B2</f>
         <v>-3_A</v>
       </c>
       <c r="D2" s="1">
@@ -8000,21 +11082,25 @@
         <v>4466113.1399999997</v>
       </c>
       <c r="E2" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C2,'new a1'!$D$2:$D$328)</f>
-        <v>4048326.45</v>
-      </c>
-      <c r="G2" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C2,'new a1'!$D$2:$D$328)</f>
+        <v>7602633.8099999996</v>
+      </c>
+      <c r="F2" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C2,'new a1'!$D$2:$D$328)</f>
+        <v>7602633.8099999996</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>4466112.8899999997</v>
       </c>
-      <c r="I2">
-        <f>H2-D2</f>
+      <c r="J2">
+        <f>I2-D2</f>
         <v>-0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -8022,7 +11108,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="str">
-        <f>A3&amp;"_"&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>-3_B</v>
       </c>
       <c r="D3" s="1">
@@ -8030,21 +11116,25 @@
         <v>4466112.88</v>
       </c>
       <c r="E3" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C3,'new a1'!$D$2:$D$328)</f>
-        <v>4048327.1</v>
-      </c>
-      <c r="G3" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C3,'new a1'!$D$2:$D$328)</f>
+        <v>5062806.8499999996</v>
+      </c>
+      <c r="F3" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C3,'new a1'!$D$2:$D$328)</f>
+        <v>5062806.8499999996</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4466112.88</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I52" si="0">H3-D3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f t="shared" ref="J3:J11" si="1">I3-D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>-3</v>
       </c>
@@ -8052,7 +11142,7 @@
         <v>19</v>
       </c>
       <c r="C4" t="str">
-        <f>A4&amp;"_"&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>-3_C</v>
       </c>
       <c r="D4" s="1">
@@ -8060,21 +11150,25 @@
         <v>3062580.2</v>
       </c>
       <c r="E4" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C4,'new a1'!$D$2:$D$328)</f>
-        <v>2426352.0599999996</v>
-      </c>
-      <c r="G4" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C4,'new a1'!$D$2:$D$328)</f>
+        <v>2784122.46</v>
+      </c>
+      <c r="F4" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C4,'new a1'!$D$2:$D$328)</f>
+        <v>2784122.46</v>
+      </c>
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3062580.2</v>
       </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-3</v>
       </c>
@@ -8082,7 +11176,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="str">
-        <f>A5&amp;"_"&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>-3_D</v>
       </c>
       <c r="D5" s="1">
@@ -8090,21 +11184,25 @@
         <v>1162545.6600000001</v>
       </c>
       <c r="E5" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C5,'new a1'!$D$2:$D$328)</f>
-        <v>704728.08000000007</v>
-      </c>
-      <c r="G5" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C5,'new a1'!$D$2:$D$328)</f>
+        <v>808701.17999999993</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C5,'new a1'!$D$2:$D$328)</f>
+        <v>808701.17999999993</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>1162545.6599999999</v>
       </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-3</v>
       </c>
@@ -8112,7 +11210,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="str">
-        <f>A6&amp;"_"&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>-3_1</v>
       </c>
       <c r="D6" s="1">
@@ -8120,21 +11218,25 @@
         <v>15925676.5</v>
       </c>
       <c r="E6" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C6,'new a1'!$D$2:$D$328)</f>
-        <v>17099078.559999999</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C6,'new a1'!$D$2:$D$328)</f>
+        <v>23291960</v>
+      </c>
+      <c r="F6" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C6,'new a1'!$D$2:$D$328)</f>
+        <v>23291960</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
         <v>15925673.380000001</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="J6">
+        <f t="shared" si="1"/>
         <v>-3.1199999991804361</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-3</v>
       </c>
@@ -8142,7 +11244,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="str">
-        <f>A7&amp;"_"&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>-3_2</v>
       </c>
       <c r="D7" s="1">
@@ -8150,21 +11252,25 @@
         <v>9262819</v>
       </c>
       <c r="E7" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C7,'new a1'!$D$2:$D$328)</f>
-        <v>9874812.75</v>
-      </c>
-      <c r="G7">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C7,'new a1'!$D$2:$D$328)</f>
+        <v>6592063.6200000001</v>
+      </c>
+      <c r="F7" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C7,'new a1'!$D$2:$D$328)</f>
+        <v>6592063.6200000001</v>
+      </c>
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>9262819</v>
       </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-3</v>
       </c>
@@ -8172,7 +11278,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="str">
-        <f>A8&amp;"_"&amp;B8</f>
+        <f t="shared" si="0"/>
         <v>-3_3</v>
       </c>
       <c r="D8" s="1">
@@ -8180,21 +11286,25 @@
         <v>233516.29</v>
       </c>
       <c r="E8" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C8,'new a1'!$D$2:$D$328)</f>
-        <v>131092.93</v>
-      </c>
-      <c r="G8">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C8,'new a1'!$D$2:$D$328)</f>
+        <v>166466.31</v>
+      </c>
+      <c r="F8" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C8,'new a1'!$D$2:$D$328)</f>
+        <v>166466.31</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>233516.29</v>
       </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-3</v>
       </c>
@@ -8202,7 +11312,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="str">
-        <f>A9&amp;"_"&amp;B9</f>
+        <f t="shared" si="0"/>
         <v>-3_4</v>
       </c>
       <c r="D9" s="1">
@@ -8210,21 +11320,25 @@
         <v>4673049</v>
       </c>
       <c r="E9" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C9,'new a1'!$D$2:$D$328)</f>
-        <v>4308542.75</v>
-      </c>
-      <c r="G9">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C9,'new a1'!$D$2:$D$328)</f>
+        <v>4614445</v>
+      </c>
+      <c r="F9" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C9,'new a1'!$D$2:$D$328)</f>
+        <v>4614445</v>
+      </c>
+      <c r="H9">
         <v>4</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>4673049</v>
       </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-3</v>
       </c>
@@ -8232,7 +11346,7 @@
         <v>21</v>
       </c>
       <c r="C10" t="str">
-        <f>A10&amp;"_"&amp;B10</f>
+        <f t="shared" si="0"/>
         <v>-3_i</v>
       </c>
       <c r="D10" s="1">
@@ -8240,21 +11354,25 @@
         <v>19154338.5</v>
       </c>
       <c r="E10" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C10,'new a1'!$D$2:$D$328)</f>
-        <v>18911607.879999999</v>
-      </c>
-      <c r="G10" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C10,'new a1'!$D$2:$D$328)</f>
+        <v>18395060</v>
+      </c>
+      <c r="F10" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C10,'new a1'!$D$2:$D$328)</f>
+        <v>18395060</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>19154341.25</v>
       </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
+      <c r="J10">
+        <f t="shared" si="1"/>
         <v>2.75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-3</v>
       </c>
@@ -8262,7 +11380,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="str">
-        <f>A11&amp;"_"&amp;B11</f>
+        <f t="shared" si="0"/>
         <v>-3_ii</v>
       </c>
       <c r="D11" s="1">
@@ -8270,40 +11388,49 @@
         <v>10548259.939999999</v>
       </c>
       <c r="E11" s="1">
-        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!C11,'new a1'!$D$2:$D$328)</f>
-        <v>11402141.560000001</v>
-      </c>
-      <c r="G11" t="s">
+        <f>SUMIF('new a2'!$F$2:$F$328,'new by location'!$C11,'new a1'!$D$2:$D$328)</f>
+        <v>7358024.0300000003</v>
+      </c>
+      <c r="F11" s="1">
+        <f>SUMIF('new a1 fmpy'!$F$2:$F$328,'new by location'!$C11,'new a1'!$D$2:$D$328)</f>
+        <v>7358024.0300000003</v>
+      </c>
+      <c r="H11" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>10548259.939999999</v>
       </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13">
         <f>SUM(D2:D11)</f>
         <v>72955011.109999999</v>
       </c>
       <c r="E13">
         <f>SUM(E2:E11)</f>
-        <v>72955010.120000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>76676283.25999999</v>
+      </c>
+      <c r="F13">
+        <f>SUM(F2:F11)</f>
+        <v>76676283.25999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>31</v>
       </c>
       <c r="E14">
         <f>D13-E13</f>
-        <v>0.98999999463558197</v>
-      </c>
-      <c r="F14" t="s">
-        <v>32</v>
+        <v>-3721272.1499999911</v>
+      </c>
+      <c r="F14">
+        <f>E13-F13</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -8313,7 +11440,7 @@
       </c>
       <c r="E54">
         <f>SUM(E2:E52)</f>
-        <v>145910021.23000002</v>
+        <v>149631294.37</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -8322,7 +11449,7 @@
       </c>
       <c r="E55">
         <f>D54-E54</f>
-        <v>0.98999997973442078</v>
+        <v>-3721272.150000006</v>
       </c>
     </row>
   </sheetData>
